--- a/data/trans_dic/P16A02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1040536094300703</v>
+        <v>0.1069139218999848</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1431752007495683</v>
+        <v>0.1452825429048301</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.161189013426227</v>
+        <v>0.1601398500846147</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2435842644604189</v>
+        <v>0.2396027663417771</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1732930890685934</v>
+        <v>0.1732748999699052</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2935968128519643</v>
+        <v>0.2944424155050499</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2898879906902363</v>
+        <v>0.2970082309641249</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.367476661820734</v>
+        <v>0.3680057570469868</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1457886537016352</v>
+        <v>0.1465855817967685</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2291922850068207</v>
+        <v>0.2290870518057004</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2368978935974179</v>
+        <v>0.2334670208534858</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.313926172946042</v>
+        <v>0.3137486818297175</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1524842056427086</v>
+        <v>0.1585092061346854</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2039229095997785</v>
+        <v>0.2033056618869817</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2212957281885432</v>
+        <v>0.2200633224833397</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3144159045240966</v>
+        <v>0.3115353949005825</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2321430710528248</v>
+        <v>0.2300818695596359</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3683269376535105</v>
+        <v>0.3669193856406048</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3634652829965714</v>
+        <v>0.3695118819952139</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4276087504435686</v>
+        <v>0.4272977074120299</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1841852521910372</v>
+        <v>0.1839925058840474</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2741521530865014</v>
+        <v>0.2754829822378018</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2838600141596634</v>
+        <v>0.2817016586765166</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.360207264850407</v>
+        <v>0.3605842504762641</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1135269045817023</v>
+        <v>0.1115207979554931</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1678646238091606</v>
+        <v>0.1689534536819532</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1726993199856091</v>
+        <v>0.1751399716965812</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1892509258349282</v>
+        <v>0.1896280939340449</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1932024725026321</v>
+        <v>0.1952183501754758</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2851589119013493</v>
+        <v>0.2848606283356007</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2587105503109599</v>
+        <v>0.2573864226455758</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.364208318206682</v>
+        <v>0.3651424831566496</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1584192352224341</v>
+        <v>0.1596348308684717</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2333153193541855</v>
+        <v>0.235999487983638</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2236778095767319</v>
+        <v>0.2230687906486069</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2839116590808671</v>
+        <v>0.2842743393628364</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1538083879144818</v>
+        <v>0.154974604721603</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2201847114489613</v>
+        <v>0.2197269092645612</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2257728610119581</v>
+        <v>0.2262296036288994</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2419951941807968</v>
+        <v>0.2426424260413123</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2492470760866083</v>
+        <v>0.2483741089456743</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3470545814854166</v>
+        <v>0.3463798899215958</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3144541955016354</v>
+        <v>0.314872761066154</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4150028406381867</v>
+        <v>0.4177993363124905</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1934048439826845</v>
+        <v>0.1961816705170647</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2744688037302536</v>
+        <v>0.2744948508176809</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2624859746063591</v>
+        <v>0.261640069568508</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3233807892242275</v>
+        <v>0.321380878740786</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.217215018689461</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2961321987092566</v>
+        <v>0.2961321987092565</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09886464987475138</v>
+        <v>0.09698977911583394</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1353153607010599</v>
+        <v>0.1380987021442485</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1228988079251575</v>
+        <v>0.1238990083697829</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.195498982673238</v>
+        <v>0.1962359557576617</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.225602672104592</v>
+        <v>0.228197054644432</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2807324831601296</v>
+        <v>0.28296186172431</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2506648402625923</v>
+        <v>0.254462131829864</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.33689313585367</v>
+        <v>0.3351316223930301</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1687433517679758</v>
+        <v>0.1713691942073865</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2193328340425608</v>
+        <v>0.2205469768127302</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1959089638888538</v>
+        <v>0.1949447934683896</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2726989710947821</v>
+        <v>0.2745143564124101</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1488254521273736</v>
+        <v>0.1496852259751088</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1922251148160622</v>
+        <v>0.1938604942680925</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1760211729873732</v>
+        <v>0.1768396156012765</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2600647030101902</v>
+        <v>0.2610257119993472</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2918418998007281</v>
+        <v>0.2966824505709034</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3536620821973328</v>
+        <v>0.351403302566646</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3177083124160845</v>
+        <v>0.3186573798738015</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3953542657384238</v>
+        <v>0.3960619509065011</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2121795005075946</v>
+        <v>0.2116961078105125</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2657343632590909</v>
+        <v>0.2649616475765401</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2387768954331193</v>
+        <v>0.2378295906578037</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3185302887406613</v>
+        <v>0.3180532885246221</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.282185082548476</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3286253758992962</v>
+        <v>0.3286253758992963</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1439486713105553</v>
+        <v>0.1428911018262736</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1583582029913813</v>
+        <v>0.158188807331761</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1848079462210683</v>
+        <v>0.185178163444995</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2178573996828363</v>
+        <v>0.2194156918442575</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2405897840946936</v>
+        <v>0.2386125179771078</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3389158078844626</v>
+        <v>0.3384439637514651</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3128501939797977</v>
+        <v>0.3170075880364873</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3773742692567501</v>
+        <v>0.3768952090011599</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2016463042612321</v>
+        <v>0.2001749525941031</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2595116012648855</v>
+        <v>0.2586896291569981</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2618867423531108</v>
+        <v>0.2619579825162318</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3106725061711604</v>
+        <v>0.3089656759537778</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1891958373722309</v>
+        <v>0.1907820782858151</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2074046103909727</v>
+        <v>0.2100653236413696</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2379381296743859</v>
+        <v>0.2383213949657283</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2748797582565225</v>
+        <v>0.2787984478618014</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2961843448258508</v>
+        <v>0.2945316952459031</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3995686157466922</v>
+        <v>0.3990044967572867</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3759764655490624</v>
+        <v>0.376274671476504</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4268649919333987</v>
+        <v>0.4300996631155236</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.237658656642264</v>
+        <v>0.2379465237566783</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3010825340645055</v>
+        <v>0.2999265452422928</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3038689433242505</v>
+        <v>0.3035204378277569</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3494004648871055</v>
+        <v>0.3473454238046847</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.2511642594031444</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3156942961967588</v>
+        <v>0.3156942961967587</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1278369250593171</v>
+        <v>0.1288035802922524</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1648501457766606</v>
+        <v>0.1648653392454351</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1751879008859406</v>
+        <v>0.1749721125682354</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2239752298481921</v>
+        <v>0.2225498395139767</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2230165773152083</v>
+        <v>0.2251172689902149</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3178010260793847</v>
+        <v>0.319747394178202</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2940562672165521</v>
+        <v>0.2960643062535912</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3761838882658177</v>
+        <v>0.3750614345574528</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1802478810361731</v>
+        <v>0.1809605769659962</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.24793757151704</v>
+        <v>0.2476765727189154</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.240590137689512</v>
+        <v>0.240941095783637</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3059187822817134</v>
+        <v>0.3058289338494142</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1518821427036345</v>
+        <v>0.1524366845382654</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1924461625630186</v>
+        <v>0.1920714338510955</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.20248983404212</v>
+        <v>0.2031682535939748</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2539354557456325</v>
+        <v>0.2551084414640231</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2539365865744282</v>
+        <v>0.2535422224601881</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3497987006425895</v>
+        <v>0.3530793757372668</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3263107521241219</v>
+        <v>0.3279445828192219</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4034701324145561</v>
+        <v>0.4038643515631061</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1993702765569464</v>
+        <v>0.2006551738634096</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2697226592244747</v>
+        <v>0.2687765903775313</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2615364876246478</v>
+        <v>0.2614320272823652</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.326050299827259</v>
+        <v>0.32684805892677</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>72109</v>
+        <v>74091</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>100332</v>
+        <v>101809</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>108770</v>
+        <v>108062</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>168246</v>
+        <v>165496</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>119286</v>
+        <v>119274</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>204345</v>
+        <v>204934</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>195048</v>
+        <v>199839</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>269402</v>
+        <v>269790</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>201384</v>
+        <v>202485</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>320129</v>
+        <v>319982</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>319253</v>
+        <v>314629</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>446975</v>
+        <v>446723</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>105671</v>
+        <v>109846</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>142902</v>
+        <v>142469</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>149330</v>
+        <v>148499</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>217170</v>
+        <v>215181</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>159796</v>
+        <v>158377</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>256358</v>
+        <v>255378</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>244554</v>
+        <v>248622</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>313486</v>
+        <v>313258</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>254423</v>
+        <v>254157</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>382928</v>
+        <v>384786</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>382541</v>
+        <v>379632</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>512871</v>
+        <v>513408</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>109190</v>
+        <v>107261</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>170877</v>
+        <v>171986</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>176573</v>
+        <v>179069</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>198509</v>
+        <v>198904</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>187096</v>
+        <v>189048</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>293417</v>
+        <v>293110</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>269813</v>
+        <v>268432</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>390008</v>
+        <v>391008</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>305780</v>
+        <v>308126</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>477574</v>
+        <v>483069</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>461972</v>
+        <v>460714</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>601823</v>
+        <v>602592</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>147933</v>
+        <v>149055</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>224136</v>
+        <v>223670</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>230837</v>
+        <v>231304</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>253833</v>
+        <v>254512</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>241369</v>
+        <v>240524</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>357105</v>
+        <v>356410</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>327948</v>
+        <v>328385</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>444401</v>
+        <v>447395</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>373309</v>
+        <v>378668</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>561812</v>
+        <v>561865</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>542124</v>
+        <v>540377</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>685488</v>
+        <v>681249</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>67081</v>
+        <v>65808</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>102371</v>
+        <v>104477</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>93348</v>
+        <v>94108</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>157000</v>
+        <v>157592</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>154276</v>
+        <v>156051</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>217928</v>
+        <v>219658</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>196775</v>
+        <v>199756</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>273644</v>
+        <v>272214</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>229888</v>
+        <v>233465</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>336198</v>
+        <v>338059</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>302594</v>
+        <v>301105</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>440499</v>
+        <v>443432</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>100979</v>
+        <v>101563</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>145426</v>
+        <v>146663</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>133697</v>
+        <v>134319</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>208851</v>
+        <v>209623</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>199573</v>
+        <v>202884</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>274542</v>
+        <v>272788</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>249405</v>
+        <v>250150</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>321130</v>
+        <v>321705</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>289063</v>
+        <v>288404</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>407323</v>
+        <v>406139</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>368806</v>
+        <v>367343</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>514532</v>
+        <v>513762</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>135632</v>
+        <v>134635</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>149796</v>
+        <v>149636</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>173270</v>
+        <v>173617</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>215692</v>
+        <v>217235</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>249879</v>
+        <v>247826</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>355776</v>
+        <v>355280</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>326546</v>
+        <v>330886</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>421539</v>
+        <v>421004</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>399428</v>
+        <v>396513</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>517901</v>
+        <v>516261</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>518888</v>
+        <v>519029</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>654616</v>
+        <v>651019</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>178264</v>
+        <v>179759</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>196190</v>
+        <v>198707</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>223083</v>
+        <v>223442</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>272148</v>
+        <v>276028</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>307621</v>
+        <v>305904</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>419446</v>
+        <v>418853</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>392436</v>
+        <v>392748</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>476821</v>
+        <v>480435</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>470762</v>
+        <v>471333</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>600863</v>
+        <v>598557</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>602070</v>
+        <v>601379</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>736219</v>
+        <v>731889</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>418733</v>
+        <v>421899</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>563982</v>
+        <v>564034</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>594649</v>
+        <v>593917</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>791251</v>
+        <v>786216</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>753617</v>
+        <v>760716</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1128510</v>
+        <v>1135421</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1042295</v>
+        <v>1049412</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1404385</v>
+        <v>1400195</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1199500</v>
+        <v>1204242</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1728664</v>
+        <v>1726844</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1669429</v>
+        <v>1671864</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2222807</v>
+        <v>2222154</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>497494</v>
+        <v>499310</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>658393</v>
+        <v>657111</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>687321</v>
+        <v>689624</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>897094</v>
+        <v>901237</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>858102</v>
+        <v>856769</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1242133</v>
+        <v>1253783</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1156622</v>
+        <v>1162413</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1506251</v>
+        <v>1507723</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1326754</v>
+        <v>1335304</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1880553</v>
+        <v>1873957</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1814773</v>
+        <v>1814049</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2369082</v>
+        <v>2374879</v>
       </c>
     </row>
     <row r="24">
